--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm-Calcr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm-Calcr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.73555533333333</v>
+        <v>13.26223533333333</v>
       </c>
       <c r="H2">
-        <v>56.20666600000001</v>
+        <v>39.786706</v>
       </c>
       <c r="I2">
-        <v>0.4699290876663871</v>
+        <v>0.391007655706778</v>
       </c>
       <c r="J2">
-        <v>0.4699290876663871</v>
+        <v>0.3910076557067781</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09584066666666667</v>
+        <v>0.0005823333333333334</v>
       </c>
       <c r="N2">
-        <v>0.287522</v>
+        <v>0.001747</v>
       </c>
       <c r="O2">
-        <v>0.02890691849988695</v>
+        <v>9.625315715314126E-05</v>
       </c>
       <c r="P2">
-        <v>0.02890691849988695</v>
+        <v>9.625315715314125E-05</v>
       </c>
       <c r="Q2">
-        <v>1.795628113516889</v>
+        <v>0.00772304170911111</v>
       </c>
       <c r="R2">
-        <v>16.160653021652</v>
+        <v>0.069507375382</v>
       </c>
       <c r="S2">
-        <v>0.01358420183789848</v>
+        <v>3.763572133282586E-05</v>
       </c>
       <c r="T2">
-        <v>0.01358420183789848</v>
+        <v>3.763572133282586E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.73555533333333</v>
+        <v>13.26223533333333</v>
       </c>
       <c r="H3">
-        <v>56.20666600000001</v>
+        <v>39.786706</v>
       </c>
       <c r="I3">
-        <v>0.4699290876663871</v>
+        <v>0.391007655706778</v>
       </c>
       <c r="J3">
-        <v>0.4699290876663871</v>
+        <v>0.3910076557067781</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0005823333333333332</v>
+        <v>6.049435666666667</v>
       </c>
       <c r="N3">
-        <v>0.001747</v>
+        <v>18.148307</v>
       </c>
       <c r="O3">
-        <v>0.0001756400783915752</v>
+        <v>0.9999037468428469</v>
       </c>
       <c r="P3">
-        <v>0.0001756400783915753</v>
+        <v>0.9999037468428468</v>
       </c>
       <c r="Q3">
-        <v>0.01091033838911111</v>
+        <v>80.22903944519354</v>
       </c>
       <c r="R3">
-        <v>0.098193045502</v>
+        <v>722.0613550067419</v>
       </c>
       <c r="S3">
-        <v>8.253838179620564E-05</v>
+        <v>0.3909700199854452</v>
       </c>
       <c r="T3">
-        <v>8.253838179620568E-05</v>
+        <v>0.3909700199854452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.73555533333333</v>
+        <v>19.55844</v>
       </c>
       <c r="H4">
-        <v>56.20666600000001</v>
+        <v>58.67532</v>
       </c>
       <c r="I4">
-        <v>0.4699290876663871</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="J4">
-        <v>0.4699290876663871</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.219069333333333</v>
+        <v>0.0005823333333333334</v>
       </c>
       <c r="N4">
-        <v>9.657207999999999</v>
+        <v>0.001747</v>
       </c>
       <c r="O4">
-        <v>0.9709174414217214</v>
+        <v>9.625315715314126E-05</v>
       </c>
       <c r="P4">
-        <v>0.9709174414217215</v>
+        <v>9.625315715314125E-05</v>
       </c>
       <c r="Q4">
-        <v>60.31105161650311</v>
+        <v>0.01138953156</v>
       </c>
       <c r="R4">
-        <v>542.799464548528</v>
+        <v>0.10250578404</v>
       </c>
       <c r="S4">
-        <v>0.4562623474466924</v>
+        <v>5.550316210229578E-05</v>
       </c>
       <c r="T4">
-        <v>0.4562623474466925</v>
+        <v>5.550316210229577E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>58.67532</v>
       </c>
       <c r="I5">
-        <v>0.490568851675588</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="J5">
-        <v>0.490568851675588</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09584066666666667</v>
+        <v>6.049435666666667</v>
       </c>
       <c r="N5">
-        <v>0.287522</v>
+        <v>18.148307</v>
       </c>
       <c r="O5">
-        <v>0.02890691849988695</v>
+        <v>0.9999037468428469</v>
       </c>
       <c r="P5">
-        <v>0.02890691849988695</v>
+        <v>0.9999037468428468</v>
       </c>
       <c r="Q5">
-        <v>1.87449392856</v>
+        <v>118.31752452036</v>
       </c>
       <c r="R5">
-        <v>16.87044535704</v>
+        <v>1064.85772068324</v>
       </c>
       <c r="S5">
-        <v>0.01418083381396935</v>
+        <v>0.5765818118507322</v>
       </c>
       <c r="T5">
-        <v>0.01418083381396935</v>
+        <v>0.5765818118507321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.55844</v>
+        <v>0.8919193333333334</v>
       </c>
       <c r="H6">
-        <v>58.67532</v>
+        <v>2.675758</v>
       </c>
       <c r="I6">
-        <v>0.490568851675588</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="J6">
-        <v>0.490568851675588</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,33 +803,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.0005823333333333332</v>
+        <v>0.0005823333333333334</v>
       </c>
       <c r="N6">
         <v>0.001747</v>
       </c>
       <c r="O6">
-        <v>0.0001756400783915752</v>
+        <v>9.625315715314126E-05</v>
       </c>
       <c r="P6">
-        <v>0.0001756400783915753</v>
+        <v>9.625315715314125E-05</v>
       </c>
       <c r="Q6">
-        <v>0.01138953156</v>
+        <v>0.0005193943584444445</v>
       </c>
       <c r="R6">
-        <v>0.10250578404</v>
+        <v>0.004674549226</v>
       </c>
       <c r="S6">
-        <v>8.61635515647653E-05</v>
+        <v>2.531098765554491E-06</v>
       </c>
       <c r="T6">
-        <v>8.616355156476533E-05</v>
+        <v>2.531098765554491E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.55844</v>
+        <v>0.8919193333333334</v>
       </c>
       <c r="H7">
-        <v>58.67532</v>
+        <v>2.675758</v>
       </c>
       <c r="I7">
-        <v>0.490568851675588</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="J7">
-        <v>0.490568851675588</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.219069333333333</v>
+        <v>6.049435666666667</v>
       </c>
       <c r="N7">
-        <v>9.657207999999999</v>
+        <v>18.148307</v>
       </c>
       <c r="O7">
-        <v>0.9709174414217214</v>
+        <v>0.9999037468428469</v>
       </c>
       <c r="P7">
-        <v>0.9709174414217215</v>
+        <v>0.9999037468428468</v>
       </c>
       <c r="Q7">
-        <v>62.95997441184</v>
+        <v>5.395608626856222</v>
       </c>
       <c r="R7">
-        <v>566.6397697065599</v>
+        <v>48.560477641706</v>
       </c>
       <c r="S7">
-        <v>0.4763018543100538</v>
+        <v>0.02629373637355691</v>
       </c>
       <c r="T7">
-        <v>0.4763018543100539</v>
+        <v>0.02629373637355691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.258689333333333</v>
+        <v>0.2055016666666667</v>
       </c>
       <c r="H8">
-        <v>3.776068</v>
+        <v>0.6165050000000001</v>
       </c>
       <c r="I8">
-        <v>0.03157070711517098</v>
+        <v>0.006058761808064916</v>
       </c>
       <c r="J8">
-        <v>0.03157070711517098</v>
+        <v>0.006058761808064917</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.09584066666666667</v>
+        <v>0.0005823333333333334</v>
       </c>
       <c r="N8">
-        <v>0.287522</v>
+        <v>0.001747</v>
       </c>
       <c r="O8">
-        <v>0.02890691849988695</v>
+        <v>9.625315715314126E-05</v>
       </c>
       <c r="P8">
-        <v>0.02890691849988695</v>
+        <v>9.625315715314125E-05</v>
       </c>
       <c r="Q8">
-        <v>0.1206336248328889</v>
+        <v>0.0001196704705555556</v>
       </c>
       <c r="R8">
-        <v>1.085702623496</v>
+        <v>0.001077034235</v>
       </c>
       <c r="S8">
-        <v>0.0009126118575620485</v>
+        <v>5.831749524651227E-07</v>
       </c>
       <c r="T8">
-        <v>0.0009126118575620486</v>
+        <v>5.831749524651227E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,294 +971,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.258689333333333</v>
+        <v>0.2055016666666667</v>
       </c>
       <c r="H9">
-        <v>3.776068</v>
+        <v>0.6165050000000001</v>
       </c>
       <c r="I9">
-        <v>0.03157070711517098</v>
+        <v>0.006058761808064916</v>
       </c>
       <c r="J9">
-        <v>0.03157070711517098</v>
+        <v>0.006058761808064917</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0005823333333333332</v>
+        <v>6.049435666666667</v>
       </c>
       <c r="N9">
-        <v>0.001747</v>
+        <v>18.148307</v>
       </c>
       <c r="O9">
-        <v>0.0001756400783915752</v>
+        <v>0.9999037468428469</v>
       </c>
       <c r="P9">
-        <v>0.0001756400783915753</v>
+        <v>0.9999037468428468</v>
       </c>
       <c r="Q9">
-        <v>0.000732976755111111</v>
+        <v>1.243169111892778</v>
       </c>
       <c r="R9">
-        <v>0.006596790795999999</v>
+        <v>11.188522007035</v>
       </c>
       <c r="S9">
-        <v>5.545081472586092E-06</v>
+        <v>0.006058178633112451</v>
       </c>
       <c r="T9">
-        <v>5.545081472586094E-06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>1.258689333333333</v>
-      </c>
-      <c r="H10">
-        <v>3.776068</v>
-      </c>
-      <c r="I10">
-        <v>0.03157070711517098</v>
-      </c>
-      <c r="J10">
-        <v>0.03157070711517098</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.219069333333333</v>
-      </c>
-      <c r="N10">
-        <v>9.657207999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.9709174414217214</v>
-      </c>
-      <c r="P10">
-        <v>0.9709174414217215</v>
-      </c>
-      <c r="Q10">
-        <v>4.051808233127111</v>
-      </c>
-      <c r="R10">
-        <v>36.466274098144</v>
-      </c>
-      <c r="S10">
-        <v>0.03065255017613635</v>
-      </c>
-      <c r="T10">
-        <v>0.03065255017613635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.3162143333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.9486429999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.007931353542853873</v>
-      </c>
-      <c r="J11">
-        <v>0.007931353542853873</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.09584066666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.287522</v>
-      </c>
-      <c r="O11">
-        <v>0.02890691849988695</v>
-      </c>
-      <c r="P11">
-        <v>0.02890691849988695</v>
-      </c>
-      <c r="Q11">
-        <v>0.03030619251622222</v>
-      </c>
-      <c r="R11">
-        <v>0.2727557326459999</v>
-      </c>
-      <c r="S11">
-        <v>0.0002292709904570665</v>
-      </c>
-      <c r="T11">
-        <v>0.0002292709904570665</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.3162143333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.9486429999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.007931353542853873</v>
-      </c>
-      <c r="J12">
-        <v>0.007931353542853873</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.0005823333333333332</v>
-      </c>
-      <c r="N12">
-        <v>0.001747</v>
-      </c>
-      <c r="O12">
-        <v>0.0001756400783915752</v>
-      </c>
-      <c r="P12">
-        <v>0.0001756400783915753</v>
-      </c>
-      <c r="Q12">
-        <v>0.0001841421467777777</v>
-      </c>
-      <c r="R12">
-        <v>0.001657279321</v>
-      </c>
-      <c r="S12">
-        <v>1.393063558018152E-06</v>
-      </c>
-      <c r="T12">
-        <v>1.393063558018153E-06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.3162143333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.9486429999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.007931353542853873</v>
-      </c>
-      <c r="J13">
-        <v>0.007931353542853873</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.219069333333333</v>
-      </c>
-      <c r="N13">
-        <v>9.657207999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.9709174414217214</v>
-      </c>
-      <c r="P13">
-        <v>0.9709174414217215</v>
-      </c>
-      <c r="Q13">
-        <v>1.017915863193778</v>
-      </c>
-      <c r="R13">
-        <v>9.161242768743998</v>
-      </c>
-      <c r="S13">
-        <v>0.007700689488838788</v>
-      </c>
-      <c r="T13">
-        <v>0.007700689488838789</v>
+        <v>0.006058178633112451</v>
       </c>
     </row>
   </sheetData>
